--- a/pcbs/lpf_control/manufacturing/SMD_BOM.xlsx
+++ b/pcbs/lpf_control/manufacturing/SMD_BOM.xlsx
@@ -179,7 +179,7 @@
     <t xml:space="preserve">3.3uH</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C17, C18, C20, C21, C22, C23, C128, C129, C130, C138, C140, C141, C148, C137, C139, C150, C151, C152</t>
+    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, C10, C11, C12, C13, C17, C18, C20, C21, C22, C23, C128, C129, C130, C138, C140, C141, C148, C137, C139, C150, C151, C152</t>
   </si>
   <si>
     <t xml:space="preserve">C1206C104K5RACTU</t>
@@ -753,9 +753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -769,7 +769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="209520"/>
-          <a:ext cx="1455840" cy="374400"/>
+          <a:ext cx="1455480" cy="374040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,8 +791,8 @@
   </sheetPr>
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I7:J34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1907,7 +1907,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I7:J34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I7:J34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
